--- a/data/trans_dic/P38_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P38_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha vacunado de la gripe en la última campaña</t>
+          <t>Población que se ha vacunado de la gripe en la última campaña (tasa de respuesta: 99,63%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -572,7 +573,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +588,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +603,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>13,39%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,4; 24,55</t>
+          <t>0,0; 22,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 42,36</t>
+          <t>3,54; 32,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,47; 24,32</t>
+          <t>5,5; 29,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,95; 19,98</t>
+          <t>0,0; 13,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,64; 44,04</t>
+          <t>0,0; 17,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,12; 24,44</t>
+          <t>4,29; 24,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,76; 16,97</t>
+          <t>1,32; 11,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,83; 39,61</t>
+          <t>2,88; 17,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,36; 20,99</t>
+          <t>6,81; 23,29</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,78%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>12,19%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 15,41</t>
+          <t>1,89; 17,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,71; 30,89</t>
+          <t>1,69; 17,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 20,82</t>
+          <t>1,62; 17,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,41; 22,32</t>
+          <t>6,46; 24,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,8; 37,4</t>
+          <t>6,97; 25,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,04; 28,55</t>
+          <t>10,17; 32,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,94; 16,39</t>
+          <t>5,75; 17,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,56; 30,61</t>
+          <t>6,28; 18,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,24; 21,57</t>
+          <t>6,12; 19,77</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>47,35%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,15%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>14,89%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 9,31</t>
+          <t>1,85; 17,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,87; 39,97</t>
+          <t>3,14; 18,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 16,31</t>
+          <t>1,56; 14,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 20,67</t>
+          <t>6,71; 19,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,54; 56,05</t>
+          <t>7,79; 20,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,4; 35,78</t>
+          <t>13,94; 33,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,56; 13,56</t>
+          <t>6,38; 15,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31,64; 45,25</t>
+          <t>7,28; 17,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,24; 24,12</t>
+          <t>9,75; 22,97</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>35,8%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,22%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>23,21%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,7; 15,78</t>
+          <t>2,57; 15,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,36; 39,04</t>
+          <t>3,76; 17,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,25; 29,72</t>
+          <t>15,89; 34,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 19,73</t>
+          <t>4,41; 15,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,98; 44,28</t>
+          <t>4,62; 16,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,22; 35,73</t>
+          <t>15,24; 31,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,79; 16,64</t>
+          <t>5,02; 13,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,6; 39,63</t>
+          <t>5,77; 14,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,17; 29,86</t>
+          <t>17,63; 29,77</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>41,32%</t>
+          <t>21,32%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>34,27%</t>
+          <t>45,37%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>29,31%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>63,71%</t>
+          <t>34,84%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>51,91%</t>
+          <t>55,19%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>25,64%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>51,84%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>42,84%</t>
+          <t>49,92%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,44; 29,92</t>
+          <t>13,79; 34,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,52; 50,98</t>
+          <t>12,42; 32,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,51; 44,29</t>
+          <t>31,42; 57,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21,66; 38,94</t>
+          <t>17,86; 41,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,5; 72,53</t>
+          <t>23,3; 50,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>42,75; 61,61</t>
+          <t>41,39; 68,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,29; 32,2</t>
+          <t>17,77; 34,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>44,31; 58,94</t>
+          <t>19,58; 35,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35,91; 49,39</t>
+          <t>39,48; 58,41</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>66,72%</t>
+          <t>66,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>87,44%</t>
+          <t>68,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>83,11%</t>
+          <t>89,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>46,5%</t>
+          <t>44,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>72,76%</t>
+          <t>54,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>79,68%</t>
+          <t>82,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>55,36%</t>
+          <t>54,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>78,92%</t>
+          <t>61,05%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>81,06%</t>
+          <t>85,25%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>56,11; 76,55</t>
+          <t>49,02; 79,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>79,37; 93,76</t>
+          <t>52,29; 81,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>73,26; 89,74</t>
+          <t>75,4; 96,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>35,7; 57,11</t>
+          <t>29,17; 59,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>61,49; 84,55</t>
+          <t>38,81; 70,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>70,37; 88,84</t>
+          <t>66,84; 92,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>47,18; 63,07</t>
+          <t>42,41; 64,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>70,95; 84,91</t>
+          <t>49,63; 70,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>73,42; 87,74</t>
+          <t>74,79; 91,98</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>27,94%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>36,76%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>40,93%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>31,89%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,68; 21,71</t>
+          <t>13,14; 21,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>31,51; 40,36</t>
+          <t>14,02; 22,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,27; 29,28</t>
+          <t>21,69; 33,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,09; 23,22</t>
+          <t>13,41; 20,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>41,29; 49,87</t>
+          <t>15,43; 23,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,88; 44,11</t>
+          <t>30,5; 42,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,82; 21,4</t>
+          <t>14,44; 20,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>37,92; 44,24</t>
+          <t>15,65; 21,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28,2; 35,22</t>
+          <t>27,89; 36,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1405,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha vacunado de la gripe en la última campaña (tasa de respuesta: 99,63%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6632</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11566</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21415</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5760</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5856</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>17141</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12393</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17422</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>38556</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23321</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3377; 30721</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8014; 42996</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17820</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20536</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6093; 35084</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3121; 28125</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6115; 37862</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19617; 67040</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>12085</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10219</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16575</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>22877</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19597</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>30970</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>34963</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>29816</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>47545</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3181; 29558</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2428; 24487</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3696; 39516</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10664; 39663</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8833; 32731</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>16508; 52725</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>19182; 59786</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16967; 49897</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23889; 77110</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11245</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11080</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11023</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>32010</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>27401</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>50438</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>43254</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38481</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>61461</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2993; 29103</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4127; 23769</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2731; 25754</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17708; 50866</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16149; 42726</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>33115; 78803</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27186; 66981</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24663; 57963</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>40240; 94801</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14074</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14562</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>48191</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>19544</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17167</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>47943</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>33619</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>31729</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>96134</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4804; 29277</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6067; 27501</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>32012; 69728</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9633; 34745</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8581; 30935</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>32413; 66146</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20344; 53284</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>20036; 51235</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>73004; 123285</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>35641</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>28151</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>70156</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>33423</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>32684</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>73867</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>69064</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>60835</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>144023</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>21419; 53186</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>16408; 42427</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>48596; 88316</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>20375; 47846</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>21856; 47346</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>55398; 92247</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>47861; 92933</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>44237; 80883</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>113890; 168502</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>72240</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>60188</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>123949</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>61412</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>57322</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>170428</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>133651</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>117510</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>294377</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>53589; 86480</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>45663; 71539</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>103929; 133133</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>40141; 82229</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>40807; 74126</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>138681; 191352</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>104727; 160320</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>95525; 136403</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>258267; 317625</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>151918</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>135766</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>291310</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>175027</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>160027</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>390787</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>326944</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>295794</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>682096</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>116370; 190698</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>105312; 172148</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>226099; 350759</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>138594; 215239</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>129013; 195670</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>334338; 461035</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>277013; 389813</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>248437; 346896</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>596565; 774511</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>